--- a/document/設計書.xlsx
+++ b/document/設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\daily_report_web\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86A9092-11B8-4123-A18B-C27AE240B438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B288A331-45EF-4D2A-A586-D1B5B7D50D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="490" yWindow="3230" windowWidth="27110" windowHeight="15370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="570" yWindow="860" windowWidth="27140" windowHeight="19230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フロント" sheetId="1" r:id="rId1"/>
@@ -736,13 +736,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>213512</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -799,14 +799,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>567596</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>196861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>169003</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>14660</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -821,10 +821,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="567596" y="13577207"/>
-          <a:ext cx="8210193" cy="710293"/>
-          <a:chOff x="609600" y="6610350"/>
-          <a:chExt cx="6864350" cy="653483"/>
+          <a:off x="567596" y="7454004"/>
+          <a:ext cx="8210193" cy="724942"/>
+          <a:chOff x="609600" y="6610346"/>
+          <a:chExt cx="6864350" cy="666959"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -840,7 +840,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="609600" y="6610350"/>
+            <a:off x="609600" y="6610346"/>
             <a:ext cx="6864350" cy="647700"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -936,7 +936,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="833553" y="6610917"/>
+            <a:off x="1607163" y="6635955"/>
             <a:ext cx="946150" cy="641350"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -979,7 +979,7 @@
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>日報作成</a:t>
+              <a:t>日報管理</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -997,7 +997,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1780728" y="6622483"/>
+            <a:off x="2554338" y="6630829"/>
             <a:ext cx="818139" cy="641350"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1035,61 +1035,6 @@
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
               <a:t>日報参照</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="73" name="テキスト ボックス 72">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8456BF6-93D8-460A-9525-3280C469F412}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2603392" y="6622483"/>
-            <a:ext cx="756862" cy="641350"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-              <a:t>日報更新</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -1600,13 +1545,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1650,13 +1595,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1714,13 +1659,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1778,13 +1723,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1842,13 +1787,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>654050</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>501650</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1906,13 +1851,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>222250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1970,13 +1915,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>222250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2034,13 +1979,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>654050</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2084,13 +2029,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2148,13 +2093,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2212,13 +2157,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2276,13 +2221,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2340,13 +2285,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2404,13 +2349,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2468,13 +2413,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2539,13 +2484,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2610,13 +2555,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2678,13 +2623,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2746,13 +2691,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>641350</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2814,13 +2759,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2881,13 +2826,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2945,13 +2890,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3009,13 +2954,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3075,13 +3020,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3141,13 +3086,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3207,13 +3152,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3276,13 +3221,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3343,13 +3288,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>615950</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3407,13 +3352,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3471,13 +3416,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3537,13 +3482,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>425450</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3603,13 +3548,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3669,13 +3614,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3731,13 +3676,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3798,13 +3743,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>577850</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3820,7 +3765,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="577850" y="22987907"/>
+          <a:off x="577850" y="16864693"/>
           <a:ext cx="8202386" cy="6085114"/>
           <a:chOff x="603250" y="13646150"/>
           <a:chExt cx="6889750" cy="6134100"/>
@@ -4193,13 +4138,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4264,13 +4209,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4332,13 +4277,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4399,13 +4344,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>641350</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4470,13 +4415,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4538,13 +4483,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4605,13 +4550,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4677,13 +4622,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4745,13 +4690,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4816,13 +4761,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>374650</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4887,13 +4832,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4951,13 +4896,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5001,13 +4946,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5065,13 +5010,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5126,13 +5071,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5176,13 +5121,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>31749</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>280066</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5241,14 +5186,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>226785</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>145142</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5263,8 +5208,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3060700" y="7772400"/>
-          <a:ext cx="1377950" cy="361950"/>
+          <a:off x="3067957" y="8617856"/>
+          <a:ext cx="1785257" cy="371929"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5297,7 +5242,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>既存日報明細呼出</a:t>
+            <a:t>登録済日報から選択</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5308,13 +5253,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5372,13 +5317,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5436,13 +5381,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>374650</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5500,13 +5445,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5571,13 +5516,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5638,13 +5583,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5705,13 +5650,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5772,13 +5717,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5835,13 +5780,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5919,13 +5864,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>221627</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5989,13 +5934,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>215277</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6059,13 +6004,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>577850</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>179257</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -6081,7 +6026,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="577850" y="22987907"/>
+          <a:off x="577850" y="16864693"/>
           <a:ext cx="8210193" cy="712107"/>
           <a:chOff x="577850" y="16084550"/>
           <a:chExt cx="8186607" cy="717550"/>
@@ -6590,1025 +6535,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>181429</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="139" name="正方形/長方形 138">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3266EC8E-4CDF-4900-8F49-BB3901885D37}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="565150" y="6635750"/>
-          <a:ext cx="8197850" cy="6134100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>166557</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="148" name="グループ化 147">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCB2C6C9-FECB-4A2E-AF27-9A9716E1E5A4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="565150" y="6583136"/>
-          <a:ext cx="8210193" cy="712107"/>
-          <a:chOff x="577850" y="16084550"/>
-          <a:chExt cx="8186607" cy="717553"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="149" name="グループ化 148">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7138E4F-C719-8F0E-1F04-CB001AA16696}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="577850" y="16084555"/>
-            <a:ext cx="8186607" cy="717548"/>
-            <a:chOff x="609600" y="6610352"/>
-            <a:chExt cx="6864350" cy="653481"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="152" name="正方形/長方形 151">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B433C612-27AF-5830-745C-BD3C4D519CC9}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="609600" y="6610352"/>
-              <a:ext cx="6864350" cy="647700"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="153" name="楕円 152">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25F96BF6-5F60-0C62-6522-F01F21EA314C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5372100" y="6750050"/>
-              <a:ext cx="349250" cy="355600"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="154" name="テキスト ボックス 153">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49EA672A-FD1C-37D0-3A8D-3010C20C01B4}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4118696" y="6610912"/>
-              <a:ext cx="946150" cy="641350"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>マスタ管理</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="155" name="テキスト ボックス 154">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7F7C8F0-64E5-1227-5239-748B54812B1E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1780728" y="6622483"/>
-              <a:ext cx="772271" cy="641350"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:ln w="9525" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-                <a:t>日報参照</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="156" name="テキスト ボックス 155">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9EA8528-9B90-54AE-E8C8-8D782803F4AF}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2603392" y="6622483"/>
-              <a:ext cx="756862" cy="641350"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:ln w="9525" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-                <a:t>日報更新</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="157" name="テキスト ボックス 156">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30AE09D6-94AE-4792-83CB-49C1FB66CE43}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5765800" y="6756400"/>
-              <a:ext cx="749300" cy="330200"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
-                <a:t>寺山</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="158" name="テキスト ボックス 157">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFD347F6-4B3F-98C1-7326-F61EAC9B3DD5}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6477000" y="6756400"/>
-              <a:ext cx="914400" cy="361950"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="92D050"/>
-            </a:solidFill>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>ログアウト</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="150" name="テキスト ボックス 149">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDA3A8C6-C964-AC8B-FA74-F827CD2EB147}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3858354" y="16090900"/>
-            <a:ext cx="908050" cy="704227"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-              <a:t>集計表示</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="151" name="テキスト ボックス 150">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F0B11DB-0E4B-7A58-970B-7B886F2B7EC8}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1060450" y="16084550"/>
-            <a:ext cx="905604" cy="704227"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-              <a:t>日報作成</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>391254</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>31124</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="162" name="テキスト ボックス 161">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EE2888A-D2C8-4FD3-AB7D-6E27F01F4F05}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="146050" y="6642100"/>
-          <a:ext cx="905604" cy="704224"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>HOME</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>501650</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>118520</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>426632</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="163" name="テキスト ボックス 162">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EF9923B-C79C-43DE-BCE6-A5B61044690A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1162050" y="7867650"/>
-          <a:ext cx="1598070" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>日報作成</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>112170</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="164" name="テキスト ボックス 163">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98B4A9B9-29E0-42BF-BC54-A1AD567C45A1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1155700" y="8356600"/>
-          <a:ext cx="1598070" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>日報参照</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>112170</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="165" name="テキスト ボックス 164">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5050F724-EE90-483A-B778-183F0E25CEF9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1155700" y="8864600"/>
-          <a:ext cx="1598070" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>日報更新</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>124870</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="166" name="テキスト ボックス 165">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB06FCB1-C161-442D-8051-28A40E923046}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1168400" y="9347200"/>
-          <a:ext cx="1598070" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>集計表示</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>112170</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="167" name="テキスト ボックス 166">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1535EE55-411E-440D-868F-D5984AA1FFB9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1155700" y="9817100"/>
-          <a:ext cx="1598070" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>マスタ管理</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>199571</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>245204</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>217995</xdr:rowOff>
+      <xdr:rowOff>9352</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7623,7 +6559,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="13579928"/>
+          <a:off x="843643" y="7474857"/>
           <a:ext cx="907418" cy="698781"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7681,13 +6617,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>245204</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>72853</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7889,6 +6825,3256 @@
         <a:lstStyle/>
         <a:p>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>507998</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>189018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>517072</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>217715</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DE2D381-06DA-447C-99D0-B0AA2471E6B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11103427" y="7446161"/>
+          <a:ext cx="11266716" cy="12275125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>550359</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190511</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>151767</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>8310</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="グループ化 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1708083-1D68-4F74-A629-48765A54CC6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11145788" y="7447654"/>
+          <a:ext cx="8210193" cy="724942"/>
+          <a:chOff x="609600" y="6610346"/>
+          <a:chExt cx="6864350" cy="666959"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="正方形/長方形 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5230B7D-A0D7-C8CB-E9D3-F155B37EE1E1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="609600" y="6610346"/>
+            <a:ext cx="6864350" cy="647700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="楕円 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D96B55DF-38EB-4812-E48D-8EAF76AF0689}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5372100" y="6750050"/>
+            <a:ext cx="349250" cy="355600"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="テキスト ボックス 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BB1DA07-F4D2-D4C0-E91C-5361A5943426}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1607163" y="6635955"/>
+            <a:ext cx="946150" cy="641350"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>日報管理</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="テキスト ボックス 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89123BF4-ABC1-DC7D-C170-57A6F1FE7646}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2554338" y="6630829"/>
+            <a:ext cx="818139" cy="641350"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>日報参照</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="テキスト ボックス 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FAF5A14-3A01-9921-4300-0B4B99DFBB86}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5765800" y="6756400"/>
+            <a:ext cx="749300" cy="330200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+              <a:t>寺山</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="テキスト ボックス 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC969451-6134-570C-9904-F9E25DF1A08B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6477000" y="6756400"/>
+            <a:ext cx="914400" cy="361950"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ログアウト</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>84364</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>300263</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="テキスト ボックス 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E54BD77-36EE-40AC-A6BD-7755C1B8ED38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12004221" y="9525000"/>
+          <a:ext cx="3526971" cy="315686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>▿</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>84363</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>220436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>84364</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="テキスト ボックス 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE7D25CC-7EBE-4A0F-83FE-871D52EF6F84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11342006" y="9518650"/>
+          <a:ext cx="662215" cy="328386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>工事名</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>90714</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>605064</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="テキスト ボックス 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226B9434-E5CC-4A9F-9BD1-048B648E13AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16646071" y="9507764"/>
+          <a:ext cx="1176564" cy="358322"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>工事名追加</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>84364</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>624113</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="144" name="テキスト ボックス 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1334AA39-D0AA-4EB4-A91C-B96B3F93DDAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12004221" y="9084129"/>
+          <a:ext cx="4513035" cy="315685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>▿</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>84363</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>84364</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="145" name="テキスト ボックス 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4588F990-B0A7-4F0D-BC02-E53BE821D885}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11342006" y="9077779"/>
+          <a:ext cx="662215" cy="328385"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>受注先</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>90714</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>220436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>605064</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="146" name="テキスト ボックス 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EFD43D6-33F4-45C6-A5C8-B8BAA1ECF5FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16646071" y="9065079"/>
+          <a:ext cx="1176564" cy="360135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>受注先追加</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>71664</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>300264</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="147" name="テキスト ボックス 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4844D26B-5420-4F60-B4E0-9C543D139AF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11991521" y="8630557"/>
+          <a:ext cx="890814" cy="315686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2023/2/28</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>71663</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>71664</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="159" name="テキスト ボックス 158">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8723CB47-D3E5-42A1-806C-8DF28CA19517}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11329306" y="8624207"/>
+          <a:ext cx="662215" cy="328386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>工事日</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>401864</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>58963</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="160" name="テキスト ボックス 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED0F4542-38C2-4AA9-89BA-348C8245CC17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12983935" y="8630557"/>
+          <a:ext cx="319314" cy="315686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>火</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>357413</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>179613</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="161" name="テキスト ボックス 160">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78481D73-992B-47F7-9C74-1A29ACEF94A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15588342" y="9531350"/>
+          <a:ext cx="484414" cy="315686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>▿</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>205013</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>52614</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="172" name="テキスト ボックス 171">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC2099EB-6F03-4F2F-B1D8-BCF772C701BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16098156" y="9531350"/>
+          <a:ext cx="509815" cy="328386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>日目</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>58963</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="173" name="直線コネクタ 172">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E51EA2C-FC80-4E8F-8BF2-EE8A310C2F83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11316606" y="10690679"/>
+          <a:ext cx="8459108" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>51706</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>15421</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>580571</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>115207</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="174" name="テキスト ボックス 173">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4668BD9-64A3-4406-873F-621B562EDED9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11309349" y="10220778"/>
+          <a:ext cx="528865" cy="326572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>明細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>401863</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>220435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>200477</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>138792</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="178" name="テキスト ボックス 177">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB9CAFE1-7E94-4667-A302-1C33640F0899}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13646149" y="8611506"/>
+          <a:ext cx="1785257" cy="371929"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>登録済日報から選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>528863</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>116113</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>215277</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="186" name="テキスト ボックス 185">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13A5F03B-597A-4A18-BB1C-2E22D7CE12E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14435363" y="7453993"/>
+          <a:ext cx="911679" cy="698784"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>集計表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>128813</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>554263</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>208927</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="187" name="テキスト ボックス 186">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B78DF006-DB0E-4E5B-8AE3-4CE6FAD77F0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15359742" y="7447643"/>
+          <a:ext cx="1087664" cy="698784"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>マスタ管理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>164192</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>211364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>409396</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>3002</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="188" name="テキスト ボックス 187">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A874787-A168-435A-BE5E-2A89C30F7EA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11421835" y="7468507"/>
+          <a:ext cx="907418" cy="698781"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HOME</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>99786</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="189" name="正方形/長方形 188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AAF1449-E110-40F7-B4FF-13571394E01E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11393714" y="11076214"/>
+          <a:ext cx="3964215" cy="1723572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>483506</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>483506</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="190" name="直線コネクタ 189">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC274D19-7204-448A-B2B7-E52B9957A936}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15052220" y="11076214"/>
+          <a:ext cx="0" cy="1705429"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>496205</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>107949</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>82307</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="191" name="正方形/長方形 190">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55C9611A-133D-4392-98CE-85412AECD247}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15064919" y="11220449"/>
+          <a:ext cx="248317" cy="233136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>158748</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>86178</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>25399</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>185965</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="196" name="テキスト ボックス 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4F05103-AE74-4236-9871-E8FB4B1B828E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11416391" y="10745107"/>
+          <a:ext cx="528865" cy="326572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>人員</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>290285</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>181429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>598715</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>98878</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="197" name="正方形/長方形 196">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D039EEBE-09C9-471C-94AF-79D2ABFCFD99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15521214" y="11067143"/>
+          <a:ext cx="4281715" cy="1731735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>320220</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>320220</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>95248</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="198" name="直線コネクタ 197">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B8038E1-D329-43BE-BF17-54F372D24DCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19524434" y="11076213"/>
+          <a:ext cx="0" cy="1719035"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>332919</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>107948</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>581236</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114298</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="199" name="正方形/長方形 198">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6A37811-F307-4704-9D86-362994E5FFDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19537133" y="11220448"/>
+          <a:ext cx="248317" cy="233136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>116114</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>125186</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>107043</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>34472</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="210" name="正方形/長方形 209">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCC4B4A4-1D83-4684-B906-3E93B6C54B8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11373757" y="13278757"/>
+          <a:ext cx="3964215" cy="1723572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>463549</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>125186</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>463549</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>16329</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="211" name="直線コネクタ 210">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6356FAD-095B-4920-9BE2-C33D19FD2D7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15032263" y="13278757"/>
+          <a:ext cx="0" cy="1705429"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>476248</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>42635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>62350</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>48985</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="212" name="正方形/長方形 211">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AF6F30C-AC82-4A6F-997F-A0C5D80B06AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15044962" y="13422992"/>
+          <a:ext cx="248317" cy="233136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>270328</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>116115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>578758</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>33564</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="213" name="正方形/長方形 212">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FEF68C1-B908-4939-A8D0-5B721327796B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15501257" y="13269686"/>
+          <a:ext cx="4281715" cy="1731735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>300263</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>125185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>300263</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>29934</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="214" name="直線コネクタ 213">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F896162-4A6F-4796-9BAB-EDD6D623AC03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19504477" y="13278756"/>
+          <a:ext cx="0" cy="1719035"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>312962</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>42634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>561279</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>48984</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="215" name="正方形/長方形 214">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C885D018-EBE2-4A9A-920A-098BE5784277}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19517176" y="13422991"/>
+          <a:ext cx="248317" cy="233136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>195942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>105228</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>105228</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="222" name="正方形/長方形 221">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E88480A-A62E-4868-AAB6-DFABEFA28B32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11371942" y="15390585"/>
+          <a:ext cx="3964215" cy="1723572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>461734</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>195942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>461734</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="223" name="直線コネクタ 222">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{921BC563-3804-4C43-B99F-B6E3A63E7C86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15030448" y="15390585"/>
+          <a:ext cx="0" cy="1705429"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>474433</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>113391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>60535</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>119742</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="224" name="正方形/長方形 223">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{345EF956-2DFC-4B39-B3BA-AE3FA929BBB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15043147" y="15534820"/>
+          <a:ext cx="248317" cy="233136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>268513</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>186871</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>576943</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>104320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="225" name="正方形/長方形 224">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ED45253-3B1B-4487-9563-52B015417A4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15499442" y="15381514"/>
+          <a:ext cx="4281715" cy="1731735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>298448</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>195941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>298448</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>100690</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="226" name="直線コネクタ 225">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0C4F0FA-0761-46D8-AADC-660930B83FC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19502662" y="15390584"/>
+          <a:ext cx="0" cy="1719035"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>311147</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>113390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>559464</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>119741</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="227" name="正方形/長方形 226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{206FBF5A-15C3-401A-A6FE-74AC21E8D46B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19515361" y="15534819"/>
+          <a:ext cx="248317" cy="233136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>302076</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>75292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>168727</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>175079</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="228" name="テキスト ボックス 227">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F04DF49-5158-4D88-85DB-C7DAD0BF5BB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15533005" y="10734221"/>
+          <a:ext cx="528865" cy="326572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>車両</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>100690</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>37192</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>226786</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>154215</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="229" name="テキスト ボックス 228">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95C57E5F-8755-4411-85E9-C5F45E80D0CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11358333" y="12963978"/>
+          <a:ext cx="788310" cy="343808"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>リース</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>280304</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>8163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>146955</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="230" name="テキスト ボックス 229">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFB4CEEE-DA3A-4B5D-AFF2-F5E32251D371}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15511233" y="12934949"/>
+          <a:ext cx="528865" cy="326572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>重機</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>87990</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>97063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>616855</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>196849</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="231" name="テキスト ボックス 230">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5FA3C23-5CA9-447A-8E07-436C627E9E3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11345633" y="15064920"/>
+          <a:ext cx="528865" cy="326572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>廃材</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>276675</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>45358</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="232" name="テキスト ボックス 231">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ADB21BF-4B66-4FB3-B005-2DD9BF0867F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15507604" y="15063106"/>
+          <a:ext cx="1755325" cy="294823"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>回送・その他</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>121556</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>103414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>429985</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>20863</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="237" name="正方形/長方形 236">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4BD7311-81CA-4C28-ABC2-1289BDB876D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11379199" y="17565914"/>
+          <a:ext cx="4281715" cy="1731735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>151490</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>112484</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>151490</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>17233</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="238" name="直線コネクタ 237">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{770C2B21-3F67-4538-982B-46AB36B7BE6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15382419" y="17574984"/>
+          <a:ext cx="0" cy="1719035"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>164189</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>29933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>412506</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>36284</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="239" name="正方形/長方形 238">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D58D1E2-86A0-4EE2-818D-AD897502CAAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15395118" y="17719219"/>
+          <a:ext cx="248317" cy="233136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>129718</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>11792</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>560615</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>79829</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="240" name="テキスト ボックス 239">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ACD2454-3EFA-4862-95AE-8C2B091BAE52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11387361" y="17247506"/>
+          <a:ext cx="1755325" cy="294823"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>有価物</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -16566,16 +18752,16 @@
       <sheetName val="←いじらないこと！"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10">
         <row r="1">
           <cell r="B1" t="str">
@@ -16655,13 +18841,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -16932,8 +19118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T46" sqref="T46"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z83" sqref="Z83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -16949,7 +19135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A439593-8B5F-4D48-9A2E-14D71FD90B26}">
   <dimension ref="B2:B97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>

--- a/document/設計書.xlsx
+++ b/document/設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\daily_report_web\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\daily_report_web\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B288A331-45EF-4D2A-A586-D1B5B7D50D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F501D815-092F-4A85-8D62-CC192D916A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="860" windowWidth="27140" windowHeight="19230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9440" yWindow="2250" windowWidth="27080" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フロント" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">人員!$A$1:$B$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">発注先!$A$1:$A$10</definedName>
     <definedName name="車輌リスト">車両!$A$2:$A$100</definedName>
-    <definedName name="処分場リスト">OFFSET([1]廃材!$A$1,0,0,1,COUNTA([1]廃材!$A$1:$CP$1)+1)</definedName>
+    <definedName name="処分場リスト">OFFSET(#REF!,0,0,1,COUNTA(#REF!)+1)</definedName>
     <definedName name="人員リスト">人員!$A$2:$A$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -10080,6 +10080,1526 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>18144</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>189020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>312059</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>7258</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="245" name="正方形/長方形 244">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B86054C0-CA2C-4A1D-BF3B-8541579E92CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11275787" y="21280091"/>
+          <a:ext cx="8240486" cy="7982524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>15146</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>11</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>278768</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>23663</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="247" name="正方形/長方形 246">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F34E67E3-0122-2934-DD6A-C3E6EFBC30D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11272789" y="21317868"/>
+          <a:ext cx="8210193" cy="704009"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>413681</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>151860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>169192</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>84803</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="248" name="楕円 247">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F87D54E-089F-A881-C53A-7E1A6BD2B135}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16969038" y="21469717"/>
+          <a:ext cx="417725" cy="386515"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>546080</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>27846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>353306</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>44596</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="249" name="テキスト ボックス 248">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E535CC39-2F33-7A3E-598E-B26E84B66072}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12465937" y="21345703"/>
+          <a:ext cx="1131655" cy="697107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>日報管理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>354532</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>22275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>8650</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>39025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="250" name="テキスト ボックス 249">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C4C753A-4A6D-0671-A0AE-73C20EDC7618}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13598818" y="21340132"/>
+          <a:ext cx="978546" cy="697107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>日報参照</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>222356</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>158762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>456351</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>64096</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="251" name="テキスト ボックス 250">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70BDA611-CB81-6693-C5D9-258B7DC59147}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17439927" y="21476619"/>
+          <a:ext cx="896210" cy="358906"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>寺山</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>410781</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>158762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>180033</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>98607</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="252" name="テキスト ボックス 251">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0500008-E732-40CF-0CEF-7E1487267342}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18290567" y="21476619"/>
+          <a:ext cx="1093680" cy="393417"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログアウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>474437</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>36285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="テキスト ボックス 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E32D662-699B-4F88-9AE1-139E2EE2785E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12394294" y="23395214"/>
+          <a:ext cx="4542064" cy="299357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>211363</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>29935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>462642</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="テキスト ボックス 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAF36CE3-B8C1-4D13-BF6B-1C4CF91F6045}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11469006" y="23388864"/>
+          <a:ext cx="913493" cy="305707"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>工事期間</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>211365</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>48986</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>137885</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="139" name="テキスト ボックス 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74C4A586-3304-43BA-B640-E3C1C85582B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12131222" y="22954343"/>
+          <a:ext cx="4513035" cy="315685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>211364</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>42636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>211365</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>144235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="テキスト ボックス 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EEA941F-4C92-499C-A682-25F6F30BE09F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11469007" y="22947993"/>
+          <a:ext cx="662215" cy="328385"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>受注先</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>185964</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>624115</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="154" name="直線コネクタ 153">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87FD333B-EBC1-4A79-86E9-7E94EAFBD27B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11443607" y="24560893"/>
+          <a:ext cx="6398079" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>478064</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>169635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>344715</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>42636</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="155" name="テキスト ボックス 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC08359F-8868-4739-A258-82BEA38884DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14384564" y="24208921"/>
+          <a:ext cx="528865" cy="326572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>日毎</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>655864</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>243114</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>24777</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="177" name="テキスト ボックス 176">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19D7E74C-16BF-416E-A508-8797F9D8EAA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14562364" y="21324207"/>
+          <a:ext cx="911679" cy="698784"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>集計表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>255814</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>18427</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="179" name="テキスト ボックス 178">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{145E913B-54B4-4721-98C1-704F6F016E43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15486743" y="21317857"/>
+          <a:ext cx="1087664" cy="698784"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>マスタ管理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>291193</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>20864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>536397</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>39288</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="180" name="テキスト ボックス 179">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CF8A2EA-637E-44BE-8BB5-C3869C3092D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11548836" y="21338721"/>
+          <a:ext cx="907418" cy="698781"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HOME</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>199573</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>68369</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>199572</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="181" name="テキスト ボックス 180">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF463031-6CD6-4BE4-BB4B-F6A9A7A07147}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12119430" y="22520155"/>
+          <a:ext cx="4517570" cy="357988"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>▿</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>199572</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>62019</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>199573</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>163620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="182" name="テキスト ボックス 181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35E66E82-9CB9-4EB8-94E9-00F21D60FD08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11457215" y="22513805"/>
+          <a:ext cx="662215" cy="328386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>工事名</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>220435</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>193222</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>658586</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>193222</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="183" name="直線コネクタ 182">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C7EC7F0-ED19-4DA8-A257-385500737C3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11478078" y="25366436"/>
+          <a:ext cx="6398079" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>458107</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>58963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>117929</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="184" name="テキスト ボックス 183">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4D9C574-9418-407B-A304-D2CA0FB40413}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11715750" y="25005392"/>
+          <a:ext cx="666750" cy="285751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>作業日</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>193221</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>93436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>471714</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>145145</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="185" name="テキスト ボックス 184">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{752C53AB-FC4B-4F62-B8A7-F7E916F9DF02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11450864" y="25039865"/>
+          <a:ext cx="278493" cy="278494"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+            <a:t>#</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>474436</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>48077</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>478972</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>107043</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="192" name="テキスト ボックス 191">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB02F2FB-CBDB-4965-B6C3-EC426C4393D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12394293" y="24994506"/>
+          <a:ext cx="666750" cy="285751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>人員</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381908</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>46263</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>386443</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>105229</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="193" name="テキスト ボックス 192">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CFC0388-3A3D-47CE-A9E9-3BD8A4528D55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12963979" y="24992692"/>
+          <a:ext cx="666750" cy="285751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>人員</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -18732,122 +20252,10 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="集計表"/>
-      <sheetName val="1日目"/>
-      <sheetName val="廃材明細"/>
-      <sheetName val="その他明細"/>
-      <sheetName val="有価物明細"/>
-      <sheetName val="発注先"/>
-      <sheetName val="人員"/>
-      <sheetName val="車両"/>
-      <sheetName val="重機"/>
-      <sheetName val="リース"/>
-      <sheetName val="廃材"/>
-      <sheetName val="いじらないこと!→"/>
-      <sheetName val="廃材2"/>
-      <sheetName val="廃材3"/>
-      <sheetName val="雛形"/>
-      <sheetName val="廃材明細_tmp"/>
-      <sheetName val="その他明細_tmp"/>
-      <sheetName val="←いじらないこと！"/>
+      <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>ＫＮＢ由加</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>インテ受</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>インテ持込</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>南備</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>ヨシハラ</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>世紀東急</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>森泉</v>
-          </cell>
-          <cell r="I1" t="str">
-            <v>安田産業粒江</v>
-          </cell>
-          <cell r="J1" t="str">
-            <v>安田産業三浜</v>
-          </cell>
-          <cell r="K1" t="str">
-            <v>牛窓</v>
-          </cell>
-          <cell r="L1" t="str">
-            <v>タマタイ</v>
-          </cell>
-          <cell r="M1" t="str">
-            <v>安田産業金甲山</v>
-          </cell>
-          <cell r="N1" t="str">
-            <v>吉田建材</v>
-          </cell>
-          <cell r="O1" t="str">
-            <v>前田道路</v>
-          </cell>
-          <cell r="P1" t="str">
-            <v>森脇興業</v>
-          </cell>
-          <cell r="Q1" t="str">
-            <v>マテリアルバンク</v>
-          </cell>
-          <cell r="R1" t="str">
-            <v>吉田実業</v>
-          </cell>
-          <cell r="S1" t="str">
-            <v>環境事業団</v>
-          </cell>
-          <cell r="T1" t="str">
-            <v>環境クリーン</v>
-          </cell>
-          <cell r="U1" t="str">
-            <v>マテリアル（ＫＮＢ）</v>
-          </cell>
-          <cell r="V1" t="str">
-            <v>世紀東急（ＫＮＢ）</v>
-          </cell>
-          <cell r="W1" t="str">
-            <v>前田道路ＫＮＢ）</v>
-          </cell>
-          <cell r="X1" t="str">
-            <v>新成建材</v>
-          </cell>
-          <cell r="Y1" t="str">
-            <v>御津砕石工業所</v>
-          </cell>
-          <cell r="Z1" t="str">
-            <v>中野開発</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -19118,8 +20526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z83" sqref="Z83"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P92" sqref="P92:Q97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -19173,7 +20581,7 @@
   <dimension ref="A2:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
